--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.6526725660438</v>
+        <v>26.544364</v>
       </c>
       <c r="H2">
-        <v>23.6526725660438</v>
+        <v>79.633092</v>
       </c>
       <c r="I2">
-        <v>0.4458909633715507</v>
+        <v>0.4729533876416525</v>
       </c>
       <c r="J2">
-        <v>0.4458909633715507</v>
+        <v>0.5651889917752048</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.6526725660438</v>
+        <v>26.544364</v>
       </c>
       <c r="N2">
-        <v>23.6526725660438</v>
+        <v>79.633092</v>
       </c>
       <c r="O2">
-        <v>0.4458909633715507</v>
+        <v>0.4729533876416525</v>
       </c>
       <c r="P2">
-        <v>0.4458909633715507</v>
+        <v>0.5651889917752048</v>
       </c>
       <c r="Q2">
-        <v>559.4489195164811</v>
+        <v>704.6032601644961</v>
       </c>
       <c r="R2">
-        <v>559.4489195164811</v>
+        <v>6341.429341480465</v>
       </c>
       <c r="S2">
-        <v>0.1988187512164096</v>
+        <v>0.2236849068817152</v>
       </c>
       <c r="T2">
-        <v>0.1988187512164096</v>
+        <v>0.3194385964238725</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.6526725660438</v>
+        <v>26.544364</v>
       </c>
       <c r="H3">
-        <v>23.6526725660438</v>
+        <v>79.633092</v>
       </c>
       <c r="I3">
-        <v>0.4458909633715507</v>
+        <v>0.4729533876416525</v>
       </c>
       <c r="J3">
-        <v>0.4458909633715507</v>
+        <v>0.5651889917752048</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.93181065656802</v>
+        <v>2.058891333333333</v>
       </c>
       <c r="N3">
-        <v>1.93181065656802</v>
+        <v>6.176674</v>
       </c>
       <c r="O3">
-        <v>0.03641774147523398</v>
+        <v>0.03668423288974031</v>
       </c>
       <c r="P3">
-        <v>0.03641774147523398</v>
+        <v>0.04383841017480674</v>
       </c>
       <c r="Q3">
-        <v>45.69248491939747</v>
+        <v>54.65196098844534</v>
       </c>
       <c r="R3">
-        <v>45.69248491939747</v>
+        <v>491.8676488960081</v>
       </c>
       <c r="S3">
-        <v>0.01623834183020816</v>
+        <v>0.01734993221823801</v>
       </c>
       <c r="T3">
-        <v>0.01623834183020816</v>
+        <v>0.0247769868477269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,185 +646,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.6526725660438</v>
+        <v>26.544364</v>
       </c>
       <c r="H4">
-        <v>23.6526725660438</v>
+        <v>79.633092</v>
       </c>
       <c r="I4">
-        <v>0.4458909633715507</v>
+        <v>0.4729533876416525</v>
       </c>
       <c r="J4">
-        <v>0.4458909633715507</v>
+        <v>0.5651889917752048</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>27.4613833883573</v>
+        <v>0.032858</v>
       </c>
       <c r="N4">
-        <v>27.4613833883573</v>
+        <v>0.09857399999999999</v>
       </c>
       <c r="O4">
-        <v>0.5176912951532152</v>
+        <v>0.0005854464025255762</v>
       </c>
       <c r="P4">
-        <v>0.5176912951532152</v>
+        <v>0.0006996204501923526</v>
       </c>
       <c r="Q4">
-        <v>649.5351094954098</v>
+        <v>0.872194712312</v>
       </c>
       <c r="R4">
-        <v>649.5351094954098</v>
+        <v>7.849752410808</v>
       </c>
       <c r="S4">
-        <v>0.2308338703249329</v>
+        <v>0.0002768888593570898</v>
       </c>
       <c r="T4">
-        <v>0.2308338703249329</v>
+        <v>0.0003954177768695306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.93181065656802</v>
+        <v>26.544364</v>
       </c>
       <c r="H5">
-        <v>1.93181065656802</v>
+        <v>79.633092</v>
       </c>
       <c r="I5">
-        <v>0.03641774147523398</v>
+        <v>0.4729533876416525</v>
       </c>
       <c r="J5">
-        <v>0.03641774147523398</v>
+        <v>0.5651889917752048</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>23.6526725660438</v>
+        <v>0.01089533333333333</v>
       </c>
       <c r="N5">
-        <v>23.6526725660438</v>
+        <v>0.032686</v>
       </c>
       <c r="O5">
-        <v>0.4458909633715507</v>
+        <v>0.0001941272659418405</v>
       </c>
       <c r="P5">
-        <v>0.4458909633715507</v>
+        <v>0.000231986061588119</v>
       </c>
       <c r="Q5">
-        <v>45.69248491939747</v>
+        <v>0.2892096939013333</v>
       </c>
       <c r="R5">
-        <v>45.69248491939747</v>
+        <v>2.602887245112</v>
       </c>
       <c r="S5">
-        <v>0.01623834183020816</v>
+        <v>9.181314806080546E-05</v>
       </c>
       <c r="T5">
-        <v>0.01623834183020816</v>
+        <v>0.0001311159682548895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.93181065656802</v>
+        <v>26.544364</v>
       </c>
       <c r="H6">
-        <v>1.93181065656802</v>
+        <v>79.633092</v>
       </c>
       <c r="I6">
-        <v>0.03641774147523398</v>
+        <v>0.4729533876416525</v>
       </c>
       <c r="J6">
-        <v>0.03641774147523398</v>
+        <v>0.5651889917752048</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.93181065656802</v>
+        <v>27.477685</v>
       </c>
       <c r="N6">
-        <v>1.93181065656802</v>
+        <v>54.95537</v>
       </c>
       <c r="O6">
-        <v>0.03641774147523398</v>
+        <v>0.4895828058001397</v>
       </c>
       <c r="P6">
-        <v>0.03641774147523398</v>
+        <v>0.390040991538208</v>
       </c>
       <c r="Q6">
-        <v>3.731892412829764</v>
+        <v>729.3776725173401</v>
       </c>
       <c r="R6">
-        <v>3.731892412829764</v>
+        <v>4376.26603510404</v>
       </c>
       <c r="S6">
-        <v>0.001326251894156977</v>
+        <v>0.2315498465342814</v>
       </c>
       <c r="T6">
-        <v>0.001326251894156977</v>
+        <v>0.2204468747584809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -826,247 +832,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.93181065656802</v>
+        <v>2.058891333333333</v>
       </c>
       <c r="H7">
-        <v>1.93181065656802</v>
+        <v>6.176674</v>
       </c>
       <c r="I7">
-        <v>0.03641774147523398</v>
+        <v>0.03668423288974031</v>
       </c>
       <c r="J7">
-        <v>0.03641774147523398</v>
+        <v>0.04383841017480674</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.4613833883573</v>
+        <v>26.544364</v>
       </c>
       <c r="N7">
-        <v>27.4613833883573</v>
+        <v>79.633092</v>
       </c>
       <c r="O7">
-        <v>0.5176912951532152</v>
+        <v>0.4729533876416525</v>
       </c>
       <c r="P7">
-        <v>0.5176912951532152</v>
+        <v>0.5651889917752048</v>
       </c>
       <c r="Q7">
-        <v>53.05019307372864</v>
+        <v>54.65196098844534</v>
       </c>
       <c r="R7">
-        <v>53.05019307372864</v>
+        <v>491.8676488960081</v>
       </c>
       <c r="S7">
-        <v>0.01885314775086884</v>
+        <v>0.01734993221823801</v>
       </c>
       <c r="T7">
-        <v>0.01885314775086884</v>
+        <v>0.0247769868477269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.4613833883573</v>
+        <v>2.058891333333333</v>
       </c>
       <c r="H8">
-        <v>27.4613833883573</v>
+        <v>6.176674</v>
       </c>
       <c r="I8">
-        <v>0.5176912951532152</v>
+        <v>0.03668423288974031</v>
       </c>
       <c r="J8">
-        <v>0.5176912951532152</v>
+        <v>0.04383841017480674</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.6526725660438</v>
+        <v>2.058891333333333</v>
       </c>
       <c r="N8">
-        <v>23.6526725660438</v>
+        <v>6.176674</v>
       </c>
       <c r="O8">
-        <v>0.4458909633715507</v>
+        <v>0.03668423288974031</v>
       </c>
       <c r="P8">
-        <v>0.4458909633715507</v>
+        <v>0.04383841017480674</v>
       </c>
       <c r="Q8">
-        <v>649.5351094954098</v>
+        <v>4.239033522475111</v>
       </c>
       <c r="R8">
-        <v>649.5351094954098</v>
+        <v>38.151301702276</v>
       </c>
       <c r="S8">
-        <v>0.2308338703249329</v>
+        <v>0.001345732942708705</v>
       </c>
       <c r="T8">
-        <v>0.2308338703249329</v>
+        <v>0.001921806206654599</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.4613833883573</v>
+        <v>2.058891333333333</v>
       </c>
       <c r="H9">
-        <v>27.4613833883573</v>
+        <v>6.176674</v>
       </c>
       <c r="I9">
-        <v>0.5176912951532152</v>
+        <v>0.03668423288974031</v>
       </c>
       <c r="J9">
-        <v>0.5176912951532152</v>
+        <v>0.04383841017480674</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.93181065656802</v>
+        <v>0.032858</v>
       </c>
       <c r="N9">
-        <v>1.93181065656802</v>
+        <v>0.09857399999999999</v>
       </c>
       <c r="O9">
-        <v>0.03641774147523398</v>
+        <v>0.0005854464025255762</v>
       </c>
       <c r="P9">
-        <v>0.03641774147523398</v>
+        <v>0.0006996204501923526</v>
       </c>
       <c r="Q9">
-        <v>53.05019307372864</v>
+        <v>0.06765105143066666</v>
       </c>
       <c r="R9">
-        <v>53.05019307372864</v>
+        <v>0.608859462876</v>
       </c>
       <c r="S9">
-        <v>0.01885314775086884</v>
+        <v>2.147665217470889E-05</v>
       </c>
       <c r="T9">
-        <v>0.01885314775086884</v>
+        <v>3.06702482622153E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.058891333333333</v>
+      </c>
+      <c r="H10">
+        <v>6.176674</v>
+      </c>
+      <c r="I10">
+        <v>0.03668423288974031</v>
+      </c>
+      <c r="J10">
+        <v>0.04383841017480674</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.01089533333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.032686</v>
+      </c>
+      <c r="O10">
+        <v>0.0001941272659418405</v>
+      </c>
+      <c r="P10">
+        <v>0.000231986061588119</v>
+      </c>
+      <c r="Q10">
+        <v>0.02243230737377778</v>
+      </c>
+      <c r="R10">
+        <v>0.201890766364</v>
+      </c>
+      <c r="S10">
+        <v>7.121409834059031E-06</v>
+      </c>
+      <c r="T10">
+        <v>1.016990012273794E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.058891333333333</v>
+      </c>
+      <c r="H11">
+        <v>6.176674</v>
+      </c>
+      <c r="I11">
+        <v>0.03668423288974031</v>
+      </c>
+      <c r="J11">
+        <v>0.04383841017480674</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>27.477685</v>
+      </c>
+      <c r="N11">
+        <v>54.95537</v>
+      </c>
+      <c r="O11">
+        <v>0.4895828058001397</v>
+      </c>
+      <c r="P11">
+        <v>0.390040991538208</v>
+      </c>
+      <c r="Q11">
+        <v>56.57356750656334</v>
+      </c>
+      <c r="R11">
+        <v>339.44140503938</v>
+      </c>
+      <c r="S11">
+        <v>0.01795996966678483</v>
+      </c>
+      <c r="T11">
+        <v>0.01709877697204028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.032858</v>
+      </c>
+      <c r="H12">
+        <v>0.09857399999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.0005854464025255762</v>
+      </c>
+      <c r="J12">
+        <v>0.0006996204501923526</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>26.544364</v>
+      </c>
+      <c r="N12">
+        <v>79.633092</v>
+      </c>
+      <c r="O12">
+        <v>0.4729533876416525</v>
+      </c>
+      <c r="P12">
+        <v>0.5651889917752048</v>
+      </c>
+      <c r="Q12">
+        <v>0.872194712312</v>
+      </c>
+      <c r="R12">
+        <v>7.849752410808</v>
+      </c>
+      <c r="S12">
+        <v>0.0002768888593570898</v>
+      </c>
+      <c r="T12">
+        <v>0.0003954177768695306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.032858</v>
+      </c>
+      <c r="H13">
+        <v>0.09857399999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0005854464025255762</v>
+      </c>
+      <c r="J13">
+        <v>0.0006996204501923526</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.058891333333333</v>
+      </c>
+      <c r="N13">
+        <v>6.176674</v>
+      </c>
+      <c r="O13">
+        <v>0.03668423288974031</v>
+      </c>
+      <c r="P13">
+        <v>0.04383841017480674</v>
+      </c>
+      <c r="Q13">
+        <v>0.06765105143066666</v>
+      </c>
+      <c r="R13">
+        <v>0.608859462876</v>
+      </c>
+      <c r="S13">
+        <v>2.147665217470889E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.06702482622153E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.032858</v>
+      </c>
+      <c r="H14">
+        <v>0.09857399999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.0005854464025255762</v>
+      </c>
+      <c r="J14">
+        <v>0.0006996204501923526</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.032858</v>
+      </c>
+      <c r="N14">
+        <v>0.09857399999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.0005854464025255762</v>
+      </c>
+      <c r="P14">
+        <v>0.0006996204501923526</v>
+      </c>
+      <c r="Q14">
+        <v>0.001079648164</v>
+      </c>
+      <c r="R14">
+        <v>0.009716833475999999</v>
+      </c>
+      <c r="S14">
+        <v>3.42747490230139E-07</v>
+      </c>
+      <c r="T14">
+        <v>4.8946877432735E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.032858</v>
+      </c>
+      <c r="H15">
+        <v>0.09857399999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.0005854464025255762</v>
+      </c>
+      <c r="J15">
+        <v>0.0006996204501923526</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.01089533333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.032686</v>
+      </c>
+      <c r="O15">
+        <v>0.0001941272659418405</v>
+      </c>
+      <c r="P15">
+        <v>0.000231986061588119</v>
+      </c>
+      <c r="Q15">
+        <v>0.0003579988626666667</v>
+      </c>
+      <c r="R15">
+        <v>0.003221989764</v>
+      </c>
+      <c r="S15">
+        <v>1.136511094777763E-07</v>
+      </c>
+      <c r="T15">
+        <v>1.623021928466306E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.032858</v>
+      </c>
+      <c r="H16">
+        <v>0.09857399999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0005854464025255762</v>
+      </c>
+      <c r="J16">
+        <v>0.0006996204501923526</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>27.477685</v>
+      </c>
+      <c r="N16">
+        <v>54.95537</v>
+      </c>
+      <c r="O16">
+        <v>0.4895828058001397</v>
+      </c>
+      <c r="P16">
+        <v>0.390040991538208</v>
+      </c>
+      <c r="Q16">
+        <v>0.90286177373</v>
+      </c>
+      <c r="R16">
+        <v>5.41717064238</v>
+      </c>
+      <c r="S16">
+        <v>0.0002866244923940696</v>
+      </c>
+      <c r="T16">
+        <v>0.0002728806540934327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.01089533333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.032686</v>
+      </c>
+      <c r="I17">
+        <v>0.0001941272659418405</v>
+      </c>
+      <c r="J17">
+        <v>0.000231986061588119</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.544364</v>
+      </c>
+      <c r="N17">
+        <v>79.633092</v>
+      </c>
+      <c r="O17">
+        <v>0.4729533876416525</v>
+      </c>
+      <c r="P17">
+        <v>0.5651889917752048</v>
+      </c>
+      <c r="Q17">
+        <v>0.2892096939013333</v>
+      </c>
+      <c r="R17">
+        <v>2.602887245112</v>
+      </c>
+      <c r="S17">
+        <v>9.181314806080546E-05</v>
+      </c>
+      <c r="T17">
+        <v>0.0001311159682548895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.01089533333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.032686</v>
+      </c>
+      <c r="I18">
+        <v>0.0001941272659418405</v>
+      </c>
+      <c r="J18">
+        <v>0.000231986061588119</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.058891333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.176674</v>
+      </c>
+      <c r="O18">
+        <v>0.03668423288974031</v>
+      </c>
+      <c r="P18">
+        <v>0.04383841017480674</v>
+      </c>
+      <c r="Q18">
+        <v>0.02243230737377778</v>
+      </c>
+      <c r="R18">
+        <v>0.201890766364</v>
+      </c>
+      <c r="S18">
+        <v>7.121409834059031E-06</v>
+      </c>
+      <c r="T18">
+        <v>1.016990012273794E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>27.4613833883573</v>
-      </c>
-      <c r="H10">
-        <v>27.4613833883573</v>
-      </c>
-      <c r="I10">
-        <v>0.5176912951532152</v>
-      </c>
-      <c r="J10">
-        <v>0.5176912951532152</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>27.4613833883573</v>
-      </c>
-      <c r="N10">
-        <v>27.4613833883573</v>
-      </c>
-      <c r="O10">
-        <v>0.5176912951532152</v>
-      </c>
-      <c r="P10">
-        <v>0.5176912951532152</v>
-      </c>
-      <c r="Q10">
-        <v>754.1275776023464</v>
-      </c>
-      <c r="R10">
-        <v>754.1275776023464</v>
-      </c>
-      <c r="S10">
-        <v>0.2680042770774134</v>
-      </c>
-      <c r="T10">
-        <v>0.2680042770774134</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.01089533333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.032686</v>
+      </c>
+      <c r="I19">
+        <v>0.0001941272659418405</v>
+      </c>
+      <c r="J19">
+        <v>0.000231986061588119</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.032858</v>
+      </c>
+      <c r="N19">
+        <v>0.09857399999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.0005854464025255762</v>
+      </c>
+      <c r="P19">
+        <v>0.0006996204501923526</v>
+      </c>
+      <c r="Q19">
+        <v>0.0003579988626666667</v>
+      </c>
+      <c r="R19">
+        <v>0.003221989764</v>
+      </c>
+      <c r="S19">
+        <v>1.136511094777763E-07</v>
+      </c>
+      <c r="T19">
+        <v>1.623021928466306E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.01089533333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.032686</v>
+      </c>
+      <c r="I20">
+        <v>0.0001941272659418405</v>
+      </c>
+      <c r="J20">
+        <v>0.000231986061588119</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.01089533333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.032686</v>
+      </c>
+      <c r="O20">
+        <v>0.0001941272659418405</v>
+      </c>
+      <c r="P20">
+        <v>0.000231986061588119</v>
+      </c>
+      <c r="Q20">
+        <v>0.0001187082884444444</v>
+      </c>
+      <c r="R20">
+        <v>0.001068374596</v>
+      </c>
+      <c r="S20">
+        <v>3.768539538205407E-08</v>
+      </c>
+      <c r="T20">
+        <v>5.381753277116652E-08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.01089533333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.032686</v>
+      </c>
+      <c r="I21">
+        <v>0.0001941272659418405</v>
+      </c>
+      <c r="J21">
+        <v>0.000231986061588119</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>27.477685</v>
+      </c>
+      <c r="N21">
+        <v>54.95537</v>
+      </c>
+      <c r="O21">
+        <v>0.4895828058001397</v>
+      </c>
+      <c r="P21">
+        <v>0.390040991538208</v>
+      </c>
+      <c r="Q21">
+        <v>0.2993785373033334</v>
+      </c>
+      <c r="R21">
+        <v>1.79627122382</v>
+      </c>
+      <c r="S21">
+        <v>9.504137154211618E-05</v>
+      </c>
+      <c r="T21">
+        <v>9.04840734848737E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>27.477685</v>
+      </c>
+      <c r="H22">
+        <v>54.95537</v>
+      </c>
+      <c r="I22">
+        <v>0.4895828058001397</v>
+      </c>
+      <c r="J22">
+        <v>0.390040991538208</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>26.544364</v>
+      </c>
+      <c r="N22">
+        <v>79.633092</v>
+      </c>
+      <c r="O22">
+        <v>0.4729533876416525</v>
+      </c>
+      <c r="P22">
+        <v>0.5651889917752048</v>
+      </c>
+      <c r="Q22">
+        <v>729.3776725173401</v>
+      </c>
+      <c r="R22">
+        <v>4376.26603510404</v>
+      </c>
+      <c r="S22">
+        <v>0.2315498465342814</v>
+      </c>
+      <c r="T22">
+        <v>0.2204468747584809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>27.477685</v>
+      </c>
+      <c r="H23">
+        <v>54.95537</v>
+      </c>
+      <c r="I23">
+        <v>0.4895828058001397</v>
+      </c>
+      <c r="J23">
+        <v>0.390040991538208</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.058891333333333</v>
+      </c>
+      <c r="N23">
+        <v>6.176674</v>
+      </c>
+      <c r="O23">
+        <v>0.03668423288974031</v>
+      </c>
+      <c r="P23">
+        <v>0.04383841017480674</v>
+      </c>
+      <c r="Q23">
+        <v>56.57356750656334</v>
+      </c>
+      <c r="R23">
+        <v>339.44140503938</v>
+      </c>
+      <c r="S23">
+        <v>0.01795996966678483</v>
+      </c>
+      <c r="T23">
+        <v>0.01709877697204028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>27.477685</v>
+      </c>
+      <c r="H24">
+        <v>54.95537</v>
+      </c>
+      <c r="I24">
+        <v>0.4895828058001397</v>
+      </c>
+      <c r="J24">
+        <v>0.390040991538208</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.032858</v>
+      </c>
+      <c r="N24">
+        <v>0.09857399999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.0005854464025255762</v>
+      </c>
+      <c r="P24">
+        <v>0.0006996204501923526</v>
+      </c>
+      <c r="Q24">
+        <v>0.90286177373</v>
+      </c>
+      <c r="R24">
+        <v>5.41717064238</v>
+      </c>
+      <c r="S24">
+        <v>0.0002866244923940696</v>
+      </c>
+      <c r="T24">
+        <v>0.0002728806540934327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>27.477685</v>
+      </c>
+      <c r="H25">
+        <v>54.95537</v>
+      </c>
+      <c r="I25">
+        <v>0.4895828058001397</v>
+      </c>
+      <c r="J25">
+        <v>0.390040991538208</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.01089533333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.032686</v>
+      </c>
+      <c r="O25">
+        <v>0.0001941272659418405</v>
+      </c>
+      <c r="P25">
+        <v>0.000231986061588119</v>
+      </c>
+      <c r="Q25">
+        <v>0.2993785373033334</v>
+      </c>
+      <c r="R25">
+        <v>1.79627122382</v>
+      </c>
+      <c r="S25">
+        <v>9.504137154211618E-05</v>
+      </c>
+      <c r="T25">
+        <v>9.04840734848737E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>27.477685</v>
+      </c>
+      <c r="H26">
+        <v>54.95537</v>
+      </c>
+      <c r="I26">
+        <v>0.4895828058001397</v>
+      </c>
+      <c r="J26">
+        <v>0.390040991538208</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>27.477685</v>
+      </c>
+      <c r="N26">
+        <v>54.95537</v>
+      </c>
+      <c r="O26">
+        <v>0.4895828058001397</v>
+      </c>
+      <c r="P26">
+        <v>0.390040991538208</v>
+      </c>
+      <c r="Q26">
+        <v>755.023172959225</v>
+      </c>
+      <c r="R26">
+        <v>3020.0926918369</v>
+      </c>
+      <c r="S26">
+        <v>0.2396913237351374</v>
+      </c>
+      <c r="T26">
+        <v>0.1521319750801084</v>
       </c>
     </row>
   </sheetData>
